--- a/spec/factories/Sample People.xlsx
+++ b/spec/factories/Sample People.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Companies" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
   <si>
     <t>Address Line 1</t>
   </si>
@@ -227,6 +227,30 @@
   </si>
   <si>
     <t>Client, Vendor</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austin </t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Mr President</t>
   </si>
 </sst>
 </file>
@@ -299,12 +323,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -314,11 +339,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -670,12 +696,13 @@
     <col min="2" max="3" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -692,22 +719,31 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -724,19 +760,28 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2">
+        <v>78701</v>
+      </c>
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -753,19 +798,28 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3">
+        <v>78702</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -782,19 +836,28 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4">
+        <v>78703</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -811,19 +874,31 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5">
+        <v>78704</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -840,20 +915,29 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6">
+        <v>78705</v>
+      </c>
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" t="s">
+      <c r="L6" s="2"/>
+      <c r="M6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -870,19 +954,28 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7">
+        <v>78706</v>
+      </c>
+      <c r="I7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -899,19 +992,28 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8">
+        <v>78707</v>
+      </c>
+      <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>5</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -928,19 +1030,28 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9">
+        <v>80001</v>
+      </c>
+      <c r="I9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
         <v>5</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -957,19 +1068,28 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10">
+        <v>80002</v>
+      </c>
+      <c r="I10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K10" t="s">
         <v>5</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -986,19 +1106,28 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11">
+        <v>80003</v>
+      </c>
+      <c r="I11" t="s">
         <v>29</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" t="s">
         <v>5</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1015,22 +1144,31 @@
         <v>24</v>
       </c>
       <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12">
+        <v>80004</v>
+      </c>
+      <c r="I12" t="s">
         <v>31</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
         <v>9</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" t="s">
         <v>5</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+    <row r="13" spans="1:13">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1047,6 +1185,7 @@
     <hyperlink ref="C12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
